--- a/report/results_final_analysis.xlsx
+++ b/report/results_final_analysis.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="8140" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="28800" windowHeight="22320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="results_final" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="results_final" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">results_final!$A$1:$L$397</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="210">
   <si>
     <t>record_time</t>
   </si>
@@ -649,6 +656,12 @@
   <si>
     <t>svm_gridsearch_run_60</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
@@ -683,9 +696,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,6 +715,6613 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42705.943715740737" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="396">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L397" sheet="results_final"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="record_time" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-11-30T23:25:00" maxDate="2016-12-01T21:56:00"/>
+    </cacheField>
+    <cacheField name="model" numFmtId="0">
+      <sharedItems count="193">
+        <s v="svm_sgd_run_1"/>
+        <s v="svm_sgd_run_2"/>
+        <s v="svm_sgd_run_3"/>
+        <s v="svm_sgd_run_4"/>
+        <s v="svm_sgd_run_5"/>
+        <s v="svm_sgd_run_6"/>
+        <s v="svm_sgd_run_7"/>
+        <s v="svm_sgd_run_8"/>
+        <s v="svm_sgd_run_9"/>
+        <s v="svm_sgd_run_10"/>
+        <s v="svm_sgd_run_11"/>
+        <s v="svm_sgd_run_12"/>
+        <s v="svm_sgd_run_13"/>
+        <s v="svm_sgd_run_14"/>
+        <s v="svm_sgd_run_15"/>
+        <s v="svm_sgd_run_16"/>
+        <s v="svm_sgd_run_17"/>
+        <s v="svm_sgd_run_18"/>
+        <s v="svm_sgd_run_19"/>
+        <s v="svm_sgd_run_20"/>
+        <s v="svm_sgd_run_21"/>
+        <s v="svm_sgd_run_22"/>
+        <s v="svm_sgd_run_23"/>
+        <s v="svm_sgd_run_24"/>
+        <s v="svm_sgd_run_25"/>
+        <s v="svm_sgd_run_26"/>
+        <s v="svm_sgd_run_27"/>
+        <s v="svm_sgd_run_28"/>
+        <s v="svm_sgd_run_29"/>
+        <s v="svm_sgd_run_30"/>
+        <s v="svm_sgd_run_31"/>
+        <s v="svm_sgd_run_32"/>
+        <s v="svm_sgd_run_33"/>
+        <s v="svm_sgd_run_34"/>
+        <s v="svm_sgd_run_35"/>
+        <s v="svm_sgd_run_36"/>
+        <s v="svm_sgd_run_37"/>
+        <s v="svm_sgd_run_38"/>
+        <s v="svm_sgd_run_39"/>
+        <s v="svm_sgd_run_40"/>
+        <s v="svm_sgd_run_41"/>
+        <s v="svm_sgd_run_42"/>
+        <s v="svm_sgd_run_43"/>
+        <s v="svm_sgd_run_44"/>
+        <s v="svm_sgd_run_45"/>
+        <s v="svm_sgd_run_46"/>
+        <s v="svm_sgd_run_47"/>
+        <s v="svm_sgd_run_48"/>
+        <s v="svm_sgd_run_49"/>
+        <s v="svm_sgd_run_50"/>
+        <s v="svm_sgd_run_51"/>
+        <s v="svm_sgd_run_52"/>
+        <s v="svm_sgd_run_53"/>
+        <s v="svm_sgd_run_54"/>
+        <s v="svm_sgd_run_55"/>
+        <s v="svm_sgd_run_56"/>
+        <s v="svm_sgd_run_57"/>
+        <s v="svm_sgd_run_58"/>
+        <s v="svm_sgd_run_59"/>
+        <s v="svm_sgd_run_60"/>
+        <s v="svm_sgd_run_61"/>
+        <s v="svm_sgd_run_62"/>
+        <s v="svm_sgd_run_63"/>
+        <s v="svm_sgd_run_64"/>
+        <s v="svm_sgd_run_65"/>
+        <s v="svm_sgd_run_66"/>
+        <s v="svm_sgd_run_67"/>
+        <s v="svm_sgd_run_68"/>
+        <s v="svm_sgd_run_69"/>
+        <s v="svm_sgd_run_70"/>
+        <s v="svm_sgd_run_71"/>
+        <s v="svm_sgd_run_72"/>
+        <s v="svm_sgd_run_73"/>
+        <s v="svm_sgd_run_74"/>
+        <s v="svm_sgd_run_75"/>
+        <s v="svm_sgd_run_76"/>
+        <s v="svm_sgd_run_77"/>
+        <s v="svm_sgd_run_78"/>
+        <s v="svm_sgd_run_79"/>
+        <s v="svm_sgd_run_80"/>
+        <s v="svm_sgd_run_81"/>
+        <s v="svm_sgd_run_82"/>
+        <s v="svm_sgd_run_83"/>
+        <s v="svm_sgd_run_84"/>
+        <s v="svm_sgd_run_85"/>
+        <s v="svm_sgd_run_86"/>
+        <s v="svm_sgd_run_87"/>
+        <s v="svm_sgd_run_88"/>
+        <s v="svm_sgd_run_89"/>
+        <s v="svm_sgd_run_90"/>
+        <s v="svm_sgd_run_91"/>
+        <s v="svm_sgd_run_92"/>
+        <s v="svm_sgd_run_93"/>
+        <s v="svm_sgd_run_94"/>
+        <s v="svm_sgd_run_95"/>
+        <s v="svm_sgd_run_96"/>
+        <s v="svm_sgd_run_97"/>
+        <s v="svm_sgd_run_98"/>
+        <s v="svm_sgd_run_99"/>
+        <s v="svm_sgd_run_100"/>
+        <s v="svm_sgd_run_1_fast"/>
+        <s v="svm_sgd_run_2_fast"/>
+        <s v="svm_sgd_run_3_fast"/>
+        <s v="svm_sgd_run_4_fast"/>
+        <s v="svm_sgd_run_5_fast"/>
+        <s v="svm_sgd_run_6_fast"/>
+        <s v="svm_sgd_run_7_fast"/>
+        <s v="svm_sgd_run_8_fast"/>
+        <s v="svm_sgd_run_9_fast"/>
+        <s v="svm_sgd_run_10_fast"/>
+        <s v="svm_sgd_run_11_fast"/>
+        <s v="svm_sgd_run_12_fast"/>
+        <s v="svm_sgd_run_13_fast"/>
+        <s v="svm_sgd_run_14_fast"/>
+        <s v="svm_sgd_run_15_fast"/>
+        <s v="svm_sgd_run_16_fast"/>
+        <s v="svm_sgd_run_17_fast"/>
+        <s v="svm_sgd_run_18_fast"/>
+        <s v="svm_sgd_run_19_fast"/>
+        <s v="svm_sgd_run_20_fast"/>
+        <s v="svm_sgd_run_21_fast"/>
+        <s v="svm_sgd_run_22_fast"/>
+        <s v="svm_sgd_run_23_fast"/>
+        <s v="svm_sgd_run_24_fast"/>
+        <s v="svm_sgd_run_25_fast"/>
+        <s v="svm_sgd_run_26_fast"/>
+        <s v="svm_sgd_run_27_fast"/>
+        <s v="svm_sgd_run_28_fast"/>
+        <s v="svm_sgd_run_29_fast"/>
+        <s v="svm_sgd_run_30_fast"/>
+        <s v="gnb_no_pca"/>
+        <s v="gnb_multioutput"/>
+        <s v="gnb_pca"/>
+        <s v="svm_gridsearch_run_1"/>
+        <s v="svm_gridsearch_run_2"/>
+        <s v="svm_gridsearch_run_3"/>
+        <s v="svm_gridsearch_run_4"/>
+        <s v="svm_gridsearch_run_5"/>
+        <s v="svm_gridsearch_run_6"/>
+        <s v="svm_gridsearch_run_7"/>
+        <s v="svm_gridsearch_run_8"/>
+        <s v="svm_gridsearch_run_9"/>
+        <s v="svm_gridsearch_run_10"/>
+        <s v="svm_gridsearch_run_11"/>
+        <s v="svm_gridsearch_run_12"/>
+        <s v="svm_gridsearch_run_13"/>
+        <s v="svm_gridsearch_run_14"/>
+        <s v="svm_gridsearch_run_15"/>
+        <s v="svm_gridsearch_run_16"/>
+        <s v="svm_gridsearch_run_17"/>
+        <s v="svm_gridsearch_run_18"/>
+        <s v="svm_gridsearch_run_19"/>
+        <s v="svm_gridsearch_run_20"/>
+        <s v="svm_gridsearch_run_21"/>
+        <s v="svm_gridsearch_run_22"/>
+        <s v="svm_gridsearch_run_23"/>
+        <s v="svm_gridsearch_run_24"/>
+        <s v="svm_gridsearch_run_25"/>
+        <s v="svm_gridsearch_run_26"/>
+        <s v="svm_gridsearch_run_27"/>
+        <s v="svm_gridsearch_run_28"/>
+        <s v="svm_gridsearch_run_29"/>
+        <s v="svm_gridsearch_run_30"/>
+        <s v="svm_gridsearch_run_31"/>
+        <s v="svm_gridsearch_run_32"/>
+        <s v="svm_gridsearch_run_33"/>
+        <s v="svm_gridsearch_run_34"/>
+        <s v="svm_gridsearch_run_35"/>
+        <s v="svm_gridsearch_run_36"/>
+        <s v="svm_gridsearch_run_37"/>
+        <s v="svm_gridsearch_run_38"/>
+        <s v="svm_gridsearch_run_39"/>
+        <s v="svm_gridsearch_run_40"/>
+        <s v="svm_gridsearch_run_41"/>
+        <s v="svm_gridsearch_run_42"/>
+        <s v="svm_gridsearch_run_43"/>
+        <s v="svm_gridsearch_run_44"/>
+        <s v="svm_gridsearch_run_45"/>
+        <s v="svm_gridsearch_run_46"/>
+        <s v="svm_gridsearch_run_47"/>
+        <s v="svm_gridsearch_run_48"/>
+        <s v="svm_gridsearch_run_49"/>
+        <s v="svm_gridsearch_run_50"/>
+        <s v="svm_gridsearch_run_51"/>
+        <s v="svm_gridsearch_run_52"/>
+        <s v="svm_gridsearch_run_53"/>
+        <s v="svm_gridsearch_run_54"/>
+        <s v="svm_gridsearch_run_55"/>
+        <s v="svm_gridsearch_run_56"/>
+        <s v="svm_gridsearch_run_57"/>
+        <s v="svm_gridsearch_run_58"/>
+        <s v="svm_gridsearch_run_59"/>
+        <s v="svm_gridsearch_run_60"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dur_train_activity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="18.46"/>
+    </cacheField>
+    <cacheField name="dur_train_subj" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="12.61"/>
+    </cacheField>
+    <cacheField name="dur_train_both" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="633.4"/>
+    </cacheField>
+    <cacheField name="precision_train" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.44" maxValue="0.96"/>
+    </cacheField>
+    <cacheField name="recall_train" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.42" maxValue="0.96"/>
+    </cacheField>
+    <cacheField name="accuracy_train" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.42" maxValue="0.96"/>
+    </cacheField>
+    <cacheField name="precision_test" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.43" maxValue="0.96"/>
+    </cacheField>
+    <cacheField name="recall_test" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.4" maxValue="0.96"/>
+    </cacheField>
+    <cacheField name="accuracy_test" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.4" maxValue="0.96"/>
+    </cacheField>
+    <cacheField name="method" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="396">
+  <r>
+    <d v="2016-12-01T19:14:00"/>
+    <x v="0"/>
+    <n v="14.47"/>
+    <n v="11.04"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:14:00"/>
+    <x v="1"/>
+    <n v="14.47"/>
+    <n v="11.42"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:15:00"/>
+    <x v="2"/>
+    <n v="14.45"/>
+    <n v="11.14"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:15:00"/>
+    <x v="3"/>
+    <n v="14.18"/>
+    <n v="10.91"/>
+    <n v="0"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:16:00"/>
+    <x v="4"/>
+    <n v="14.5"/>
+    <n v="10.88"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:16:00"/>
+    <x v="5"/>
+    <n v="14.41"/>
+    <n v="10.87"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:17:00"/>
+    <x v="6"/>
+    <n v="14.34"/>
+    <n v="10.99"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.54"/>
+    <n v="0.52"/>
+    <n v="0.52"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:17:00"/>
+    <x v="7"/>
+    <n v="14.41"/>
+    <n v="11.21"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:18:00"/>
+    <x v="8"/>
+    <n v="14.67"/>
+    <n v="11.03"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:18:00"/>
+    <x v="9"/>
+    <n v="14.21"/>
+    <n v="11.07"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:19:00"/>
+    <x v="10"/>
+    <n v="14.17"/>
+    <n v="10.97"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:19:00"/>
+    <x v="11"/>
+    <n v="14.48"/>
+    <n v="11.37"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:20:00"/>
+    <x v="12"/>
+    <n v="14.31"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:20:00"/>
+    <x v="13"/>
+    <n v="14.24"/>
+    <n v="10.98"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:21:00"/>
+    <x v="14"/>
+    <n v="14.34"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:21:00"/>
+    <x v="15"/>
+    <n v="14.36"/>
+    <n v="10.9"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:22:00"/>
+    <x v="16"/>
+    <n v="14.38"/>
+    <n v="11.45"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:22:00"/>
+    <x v="17"/>
+    <n v="14.21"/>
+    <n v="10.98"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:23:00"/>
+    <x v="18"/>
+    <n v="15.1"/>
+    <n v="10.93"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:23:00"/>
+    <x v="19"/>
+    <n v="14.59"/>
+    <n v="10.95"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:24:00"/>
+    <x v="20"/>
+    <n v="14.36"/>
+    <n v="10.83"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:24:00"/>
+    <x v="21"/>
+    <n v="14.32"/>
+    <n v="11.34"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:25:00"/>
+    <x v="22"/>
+    <n v="15.23"/>
+    <n v="11.74"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:25:00"/>
+    <x v="23"/>
+    <n v="15.46"/>
+    <n v="11.77"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:26:00"/>
+    <x v="24"/>
+    <n v="15.79"/>
+    <n v="11.69"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:26:00"/>
+    <x v="25"/>
+    <n v="15.68"/>
+    <n v="12.33"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:27:00"/>
+    <x v="26"/>
+    <n v="15.78"/>
+    <n v="11.95"/>
+    <n v="0"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:27:00"/>
+    <x v="27"/>
+    <n v="15.24"/>
+    <n v="11.97"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:28:00"/>
+    <x v="28"/>
+    <n v="15.78"/>
+    <n v="11.44"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:28:00"/>
+    <x v="29"/>
+    <n v="15"/>
+    <n v="11.82"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:29:00"/>
+    <x v="30"/>
+    <n v="15.55"/>
+    <n v="11.62"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:29:00"/>
+    <x v="31"/>
+    <n v="14.24"/>
+    <n v="11.46"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:30:00"/>
+    <x v="32"/>
+    <n v="14.26"/>
+    <n v="10.9"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:30:00"/>
+    <x v="33"/>
+    <n v="14.33"/>
+    <n v="11.08"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.51"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:31:00"/>
+    <x v="34"/>
+    <n v="14.24"/>
+    <n v="10.86"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.53"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:31:00"/>
+    <x v="35"/>
+    <n v="14.37"/>
+    <n v="10.94"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:32:00"/>
+    <x v="36"/>
+    <n v="14.29"/>
+    <n v="11.16"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:32:00"/>
+    <x v="37"/>
+    <n v="14.5"/>
+    <n v="11.08"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.54"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:33:00"/>
+    <x v="38"/>
+    <n v="14.28"/>
+    <n v="10.95"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:33:00"/>
+    <x v="39"/>
+    <n v="14.21"/>
+    <n v="11.06"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:34:00"/>
+    <x v="40"/>
+    <n v="14.15"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:34:00"/>
+    <x v="41"/>
+    <n v="14.52"/>
+    <n v="11.05"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:35:00"/>
+    <x v="42"/>
+    <n v="14.35"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.53"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:35:00"/>
+    <x v="43"/>
+    <n v="14.18"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:36:00"/>
+    <x v="44"/>
+    <n v="14.57"/>
+    <n v="10.99"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:36:00"/>
+    <x v="45"/>
+    <n v="14.2"/>
+    <n v="10.88"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:36:00"/>
+    <x v="46"/>
+    <n v="14.2"/>
+    <n v="10.86"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:37:00"/>
+    <x v="47"/>
+    <n v="14.13"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:37:00"/>
+    <x v="48"/>
+    <n v="14.61"/>
+    <n v="10.93"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:38:00"/>
+    <x v="49"/>
+    <n v="14.24"/>
+    <n v="10.95"/>
+    <n v="0"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:38:00"/>
+    <x v="50"/>
+    <n v="14.42"/>
+    <n v="10.87"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:39:00"/>
+    <x v="51"/>
+    <n v="14.23"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:39:00"/>
+    <x v="52"/>
+    <n v="14.36"/>
+    <n v="10.94"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:40:00"/>
+    <x v="53"/>
+    <n v="14.56"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:40:00"/>
+    <x v="54"/>
+    <n v="14.42"/>
+    <n v="11.07"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:41:00"/>
+    <x v="55"/>
+    <n v="14.4"/>
+    <n v="10.96"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:41:00"/>
+    <x v="56"/>
+    <n v="14.1"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:42:00"/>
+    <x v="57"/>
+    <n v="14.33"/>
+    <n v="11.1"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:42:00"/>
+    <x v="58"/>
+    <n v="14.36"/>
+    <n v="11.2"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:43:00"/>
+    <x v="59"/>
+    <n v="14.21"/>
+    <n v="10.9"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.54"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:43:00"/>
+    <x v="60"/>
+    <n v="14.14"/>
+    <n v="10.82"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:44:00"/>
+    <x v="61"/>
+    <n v="14.18"/>
+    <n v="11.12"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:44:00"/>
+    <x v="62"/>
+    <n v="14.6"/>
+    <n v="11.46"/>
+    <n v="0"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:45:00"/>
+    <x v="63"/>
+    <n v="14.26"/>
+    <n v="10.92"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:45:00"/>
+    <x v="64"/>
+    <n v="14.2"/>
+    <n v="10.86"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:46:00"/>
+    <x v="65"/>
+    <n v="14.21"/>
+    <n v="11.05"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:46:00"/>
+    <x v="66"/>
+    <n v="14.25"/>
+    <n v="11.01"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:47:00"/>
+    <x v="67"/>
+    <n v="14.24"/>
+    <n v="10.9"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:47:00"/>
+    <x v="68"/>
+    <n v="14.44"/>
+    <n v="11.24"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:48:00"/>
+    <x v="69"/>
+    <n v="14.34"/>
+    <n v="11.29"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:48:00"/>
+    <x v="70"/>
+    <n v="14.06"/>
+    <n v="10.77"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:49:00"/>
+    <x v="71"/>
+    <n v="14.79"/>
+    <n v="10.97"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:49:00"/>
+    <x v="72"/>
+    <n v="14.24"/>
+    <n v="11.25"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:50:00"/>
+    <x v="73"/>
+    <n v="14.24"/>
+    <n v="10.95"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:50:00"/>
+    <x v="74"/>
+    <n v="14.59"/>
+    <n v="10.98"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:50:00"/>
+    <x v="75"/>
+    <n v="14.05"/>
+    <n v="10.82"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:51:00"/>
+    <x v="76"/>
+    <n v="14.45"/>
+    <n v="11.09"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:51:00"/>
+    <x v="77"/>
+    <n v="14.57"/>
+    <n v="10.93"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:52:00"/>
+    <x v="78"/>
+    <n v="14.31"/>
+    <n v="10.97"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:52:00"/>
+    <x v="79"/>
+    <n v="14.6"/>
+    <n v="10.98"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:53:00"/>
+    <x v="80"/>
+    <n v="14.11"/>
+    <n v="10.87"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:53:00"/>
+    <x v="81"/>
+    <n v="14.35"/>
+    <n v="10.99"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:54:00"/>
+    <x v="82"/>
+    <n v="14.39"/>
+    <n v="10.97"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:54:00"/>
+    <x v="83"/>
+    <n v="14.46"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.5"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:55:00"/>
+    <x v="84"/>
+    <n v="14.5"/>
+    <n v="10.97"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:55:00"/>
+    <x v="85"/>
+    <n v="14.11"/>
+    <n v="10.81"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:56:00"/>
+    <x v="86"/>
+    <n v="14.6"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:56:00"/>
+    <x v="87"/>
+    <n v="14.45"/>
+    <n v="11.06"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:57:00"/>
+    <x v="88"/>
+    <n v="14.79"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.45"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <n v="0.45"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:57:00"/>
+    <x v="89"/>
+    <n v="14.17"/>
+    <n v="11.01"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:58:00"/>
+    <x v="90"/>
+    <n v="14.23"/>
+    <n v="10.88"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:58:00"/>
+    <x v="91"/>
+    <n v="15.23"/>
+    <n v="10.95"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:59:00"/>
+    <x v="92"/>
+    <n v="15.67"/>
+    <n v="11.82"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T19:59:00"/>
+    <x v="93"/>
+    <n v="18.46"/>
+    <n v="12.08"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:00:00"/>
+    <x v="94"/>
+    <n v="14.58"/>
+    <n v="11.08"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:00:00"/>
+    <x v="95"/>
+    <n v="14.52"/>
+    <n v="11.14"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:01:00"/>
+    <x v="96"/>
+    <n v="14.33"/>
+    <n v="11.03"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:01:00"/>
+    <x v="97"/>
+    <n v="15.22"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.54"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:02:00"/>
+    <x v="98"/>
+    <n v="15"/>
+    <n v="11.79"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:02:00"/>
+    <x v="99"/>
+    <n v="14.84"/>
+    <n v="11.4"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:04:00"/>
+    <x v="0"/>
+    <n v="15.21"/>
+    <n v="11.21"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:05:00"/>
+    <x v="1"/>
+    <n v="15.28"/>
+    <n v="11.42"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:05:00"/>
+    <x v="2"/>
+    <n v="15.29"/>
+    <n v="10.8"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:06:00"/>
+    <x v="3"/>
+    <n v="14.81"/>
+    <n v="11.18"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:06:00"/>
+    <x v="4"/>
+    <n v="15.06"/>
+    <n v="11.14"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:07:00"/>
+    <x v="5"/>
+    <n v="15.45"/>
+    <n v="11.37"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:07:00"/>
+    <x v="6"/>
+    <n v="14.79"/>
+    <n v="11.05"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:08:00"/>
+    <x v="7"/>
+    <n v="14.9"/>
+    <n v="11.26"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:08:00"/>
+    <x v="8"/>
+    <n v="14.81"/>
+    <n v="11.48"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:09:00"/>
+    <x v="9"/>
+    <n v="14.7"/>
+    <n v="11.02"/>
+    <n v="0"/>
+    <n v="0.46"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <n v="0.45"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:09:00"/>
+    <x v="10"/>
+    <n v="15"/>
+    <n v="11.3"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:10:00"/>
+    <x v="11"/>
+    <n v="14.88"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:10:00"/>
+    <x v="12"/>
+    <n v="15.72"/>
+    <n v="10.99"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:11:00"/>
+    <x v="13"/>
+    <n v="15.04"/>
+    <n v="11.28"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:11:00"/>
+    <x v="14"/>
+    <n v="15.14"/>
+    <n v="11.06"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:12:00"/>
+    <x v="15"/>
+    <n v="15.03"/>
+    <n v="11.21"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:12:00"/>
+    <x v="16"/>
+    <n v="15.74"/>
+    <n v="10.96"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:13:00"/>
+    <x v="17"/>
+    <n v="15.46"/>
+    <n v="11.14"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:13:00"/>
+    <x v="18"/>
+    <n v="14.86"/>
+    <n v="11.25"/>
+    <n v="0"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.53"/>
+    <n v="0.53"/>
+    <n v="0.54"/>
+    <n v="0.53"/>
+    <n v="0.53"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:14:00"/>
+    <x v="19"/>
+    <n v="15.02"/>
+    <n v="10.92"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:14:00"/>
+    <x v="20"/>
+    <n v="14.73"/>
+    <n v="11.2"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:15:00"/>
+    <x v="21"/>
+    <n v="14.96"/>
+    <n v="10.92"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:15:00"/>
+    <x v="22"/>
+    <n v="14.69"/>
+    <n v="11.33"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:16:00"/>
+    <x v="23"/>
+    <n v="14.93"/>
+    <n v="10.83"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:16:00"/>
+    <x v="24"/>
+    <n v="14.67"/>
+    <n v="11.4"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:17:00"/>
+    <x v="25"/>
+    <n v="15.16"/>
+    <n v="10.98"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:17:00"/>
+    <x v="26"/>
+    <n v="14.66"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:18:00"/>
+    <x v="27"/>
+    <n v="15.19"/>
+    <n v="11.09"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:18:00"/>
+    <x v="28"/>
+    <n v="14.68"/>
+    <n v="11.31"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:19:00"/>
+    <x v="29"/>
+    <n v="15.02"/>
+    <n v="10.86"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <n v="0.47"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:19:00"/>
+    <x v="30"/>
+    <n v="14.69"/>
+    <n v="11.37"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:20:00"/>
+    <x v="31"/>
+    <n v="15.17"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:20:00"/>
+    <x v="32"/>
+    <n v="14.81"/>
+    <n v="11.23"/>
+    <n v="0"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.44"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:21:00"/>
+    <x v="33"/>
+    <n v="15.09"/>
+    <n v="11.09"/>
+    <n v="0"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.54"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:21:00"/>
+    <x v="34"/>
+    <n v="15.17"/>
+    <n v="11.06"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:22:00"/>
+    <x v="35"/>
+    <n v="14.9"/>
+    <n v="11.2"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:22:00"/>
+    <x v="36"/>
+    <n v="15.08"/>
+    <n v="11.38"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:23:00"/>
+    <x v="37"/>
+    <n v="14.8"/>
+    <n v="11.88"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:23:00"/>
+    <x v="38"/>
+    <n v="15.6"/>
+    <n v="11.08"/>
+    <n v="0"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:24:00"/>
+    <x v="39"/>
+    <n v="15.01"/>
+    <n v="11.96"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:24:00"/>
+    <x v="40"/>
+    <n v="15.45"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:25:00"/>
+    <x v="41"/>
+    <n v="14.88"/>
+    <n v="11.06"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:25:00"/>
+    <x v="42"/>
+    <n v="15.39"/>
+    <n v="10.89"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:26:00"/>
+    <x v="43"/>
+    <n v="14.65"/>
+    <n v="11.03"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:26:00"/>
+    <x v="44"/>
+    <n v="14.94"/>
+    <n v="10.97"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:27:00"/>
+    <x v="45"/>
+    <n v="15.09"/>
+    <n v="11.15"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:27:00"/>
+    <x v="46"/>
+    <n v="14.9"/>
+    <n v="11.1"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:28:00"/>
+    <x v="47"/>
+    <n v="14.92"/>
+    <n v="12.05"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:28:00"/>
+    <x v="48"/>
+    <n v="15.07"/>
+    <n v="11.3"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:29:00"/>
+    <x v="49"/>
+    <n v="15.4"/>
+    <n v="11.65"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:29:00"/>
+    <x v="50"/>
+    <n v="16.11"/>
+    <n v="11.7"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:30:00"/>
+    <x v="51"/>
+    <n v="15.83"/>
+    <n v="11.84"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:30:00"/>
+    <x v="52"/>
+    <n v="15.67"/>
+    <n v="11.66"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:31:00"/>
+    <x v="53"/>
+    <n v="15.61"/>
+    <n v="11.45"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:31:00"/>
+    <x v="54"/>
+    <n v="15.63"/>
+    <n v="11.66"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:32:00"/>
+    <x v="55"/>
+    <n v="15.94"/>
+    <n v="11.36"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:32:00"/>
+    <x v="56"/>
+    <n v="15.71"/>
+    <n v="11.31"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:33:00"/>
+    <x v="57"/>
+    <n v="15.06"/>
+    <n v="11.24"/>
+    <n v="0"/>
+    <n v="0.44"/>
+    <n v="0.42"/>
+    <n v="0.42"/>
+    <n v="0.44"/>
+    <n v="0.43"/>
+    <n v="0.43"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:33:00"/>
+    <x v="58"/>
+    <n v="14.89"/>
+    <n v="11.08"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:34:00"/>
+    <x v="59"/>
+    <n v="14.8"/>
+    <n v="11.18"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:34:00"/>
+    <x v="60"/>
+    <n v="15.12"/>
+    <n v="11.13"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:35:00"/>
+    <x v="61"/>
+    <n v="14.68"/>
+    <n v="11.12"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:35:00"/>
+    <x v="62"/>
+    <n v="15"/>
+    <n v="11.07"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:36:00"/>
+    <x v="63"/>
+    <n v="14.56"/>
+    <n v="11.13"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:36:00"/>
+    <x v="64"/>
+    <n v="15.05"/>
+    <n v="10.95"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:37:00"/>
+    <x v="65"/>
+    <n v="14.94"/>
+    <n v="11.25"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:37:00"/>
+    <x v="66"/>
+    <n v="15.11"/>
+    <n v="11.11"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:38:00"/>
+    <x v="67"/>
+    <n v="14.58"/>
+    <n v="11.01"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:38:00"/>
+    <x v="68"/>
+    <n v="15.03"/>
+    <n v="10.94"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:39:00"/>
+    <x v="69"/>
+    <n v="14.62"/>
+    <n v="11.19"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:39:00"/>
+    <x v="70"/>
+    <n v="15.01"/>
+    <n v="10.86"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:40:00"/>
+    <x v="71"/>
+    <n v="15.42"/>
+    <n v="11.12"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:40:00"/>
+    <x v="72"/>
+    <n v="15.34"/>
+    <n v="10.92"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.52"/>
+    <n v="0.52"/>
+    <n v="0.53"/>
+    <n v="0.52"/>
+    <n v="0.52"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:41:00"/>
+    <x v="73"/>
+    <n v="15.05"/>
+    <n v="11.08"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:41:00"/>
+    <x v="74"/>
+    <n v="15.21"/>
+    <n v="11.1"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.54"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:42:00"/>
+    <x v="75"/>
+    <n v="14.83"/>
+    <n v="11.28"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.52"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:42:00"/>
+    <x v="76"/>
+    <n v="15.66"/>
+    <n v="11.33"/>
+    <n v="0"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.45"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:43:00"/>
+    <x v="77"/>
+    <n v="14.7"/>
+    <n v="11.31"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.53"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:43:00"/>
+    <x v="78"/>
+    <n v="15.58"/>
+    <n v="11.6"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.46"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:44:00"/>
+    <x v="79"/>
+    <n v="15.01"/>
+    <n v="11.36"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <n v="0.48"/>
+    <n v="0.44"/>
+    <n v="0.44"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:44:00"/>
+    <x v="80"/>
+    <n v="15.63"/>
+    <n v="11.58"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:45:00"/>
+    <x v="81"/>
+    <n v="15.35"/>
+    <n v="12.21"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.52"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:45:00"/>
+    <x v="82"/>
+    <n v="15.96"/>
+    <n v="11.9"/>
+    <n v="0"/>
+    <n v="0.54"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.53"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:46:00"/>
+    <x v="83"/>
+    <n v="16.02"/>
+    <n v="11.67"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:46:00"/>
+    <x v="84"/>
+    <n v="15.99"/>
+    <n v="11.28"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:47:00"/>
+    <x v="85"/>
+    <n v="15.01"/>
+    <n v="11.01"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.48"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:47:00"/>
+    <x v="86"/>
+    <n v="15.84"/>
+    <n v="11.13"/>
+    <n v="0"/>
+    <n v="0.48"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:48:00"/>
+    <x v="87"/>
+    <n v="15.44"/>
+    <n v="11.27"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <n v="0.46"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:48:00"/>
+    <x v="88"/>
+    <n v="14.49"/>
+    <n v="11.04"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:49:00"/>
+    <x v="89"/>
+    <n v="14.7"/>
+    <n v="10.78"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:49:00"/>
+    <x v="90"/>
+    <n v="15.03"/>
+    <n v="11.37"/>
+    <n v="0"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.51"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:50:00"/>
+    <x v="91"/>
+    <n v="14.95"/>
+    <n v="12.61"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:51:00"/>
+    <x v="92"/>
+    <n v="16.440000000000001"/>
+    <n v="12.08"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.51"/>
+    <n v="0.51"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:51:00"/>
+    <x v="93"/>
+    <n v="16.149999999999999"/>
+    <n v="11.86"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:52:00"/>
+    <x v="94"/>
+    <n v="16.440000000000001"/>
+    <n v="11.95"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:52:00"/>
+    <x v="95"/>
+    <n v="16.28"/>
+    <n v="11.21"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:53:00"/>
+    <x v="96"/>
+    <n v="15.79"/>
+    <n v="11.83"/>
+    <n v="0"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="0.53"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:53:00"/>
+    <x v="97"/>
+    <n v="15.15"/>
+    <n v="10.65"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.5"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:54:00"/>
+    <x v="98"/>
+    <n v="14.64"/>
+    <n v="11.66"/>
+    <n v="0"/>
+    <n v="0.49"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <n v="0.48"/>
+    <n v="0.47"/>
+    <n v="0.47"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:54:00"/>
+    <x v="99"/>
+    <n v="16.05"/>
+    <n v="11.69"/>
+    <n v="0"/>
+    <n v="0.51"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <n v="0.5"/>
+    <n v="0.48"/>
+    <n v="0.48"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T20:59:00"/>
+    <x v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="115.1"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:01:00"/>
+    <x v="101"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="113.77"/>
+    <n v="0.74"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:03:00"/>
+    <x v="102"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.79"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:05:00"/>
+    <x v="103"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="113.94"/>
+    <n v="0.69"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:07:00"/>
+    <x v="104"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="108.46"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:09:00"/>
+    <x v="105"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="109.61"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:10:00"/>
+    <x v="106"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="111.05"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:12:00"/>
+    <x v="107"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="113.98"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:14:00"/>
+    <x v="108"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.13"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:16:00"/>
+    <x v="109"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.11"/>
+    <n v="0.7"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.7"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:18:00"/>
+    <x v="110"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.63"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:20:00"/>
+    <x v="111"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="115.57"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:22:00"/>
+    <x v="112"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.66"/>
+    <n v="0.71"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <n v="0.71"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:24:00"/>
+    <x v="113"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="112.84"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:26:00"/>
+    <x v="114"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.6"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:28:00"/>
+    <x v="115"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="113.24"/>
+    <n v="0.7"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.7"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:30:00"/>
+    <x v="116"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="112.98"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:32:00"/>
+    <x v="117"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="112.98"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:34:00"/>
+    <x v="118"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="115.85"/>
+    <n v="0.72"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.72"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:36:00"/>
+    <x v="119"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="117.74"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:38:00"/>
+    <x v="120"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.84"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:40:00"/>
+    <x v="121"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.86"/>
+    <n v="0.73"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.73"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:42:00"/>
+    <x v="122"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.08"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:44:00"/>
+    <x v="123"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.11"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:46:00"/>
+    <x v="124"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="111.8"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:48:00"/>
+    <x v="125"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.81"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:50:00"/>
+    <x v="126"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="113.56"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:52:00"/>
+    <x v="127"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114.64"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:54:00"/>
+    <x v="128"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="111.16"/>
+    <n v="0.74"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.74"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T21:56:00"/>
+    <x v="129"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="115.9"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-11-30T23:25:00"/>
+    <x v="130"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.48"/>
+    <n v="0.96"/>
+    <n v="0.96"/>
+    <n v="0.96"/>
+    <n v="0.96"/>
+    <n v="0.96"/>
+    <n v="0.96"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-11-30T23:39:00"/>
+    <x v="131"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2.2799999999999998"/>
+    <n v="0.59"/>
+    <n v="0.54"/>
+    <n v="0.54"/>
+    <n v="0.59"/>
+    <n v="0.54"/>
+    <n v="0.54"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T00:04:00"/>
+    <x v="132"/>
+    <n v="0.52"/>
+    <n v="0.48"/>
+    <n v="0"/>
+    <n v="0.47"/>
+    <n v="0.45"/>
+    <n v="0.45"/>
+    <n v="0.54"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <s v="activity then subject"/>
+  </r>
+  <r>
+    <d v="2016-12-01T00:10:00"/>
+    <x v="132"/>
+    <n v="0.52"/>
+    <n v="0.5"/>
+    <n v="0"/>
+    <n v="0.59"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.43"/>
+    <n v="0.4"/>
+    <n v="0.4"/>
+    <s v="subject then activity"/>
+  </r>
+  <r>
+    <d v="2016-12-01T00:14:00"/>
+    <x v="132"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.74"/>
+    <n v="0.92"/>
+    <n v="0.92"/>
+    <n v="0.92"/>
+    <n v="0.65"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T07:51:00"/>
+    <x v="133"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="623.23"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:02:00"/>
+    <x v="134"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="630.53"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.74"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:12:00"/>
+    <x v="135"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="623.39"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:23:00"/>
+    <x v="136"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="623.16999999999996"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:33:00"/>
+    <x v="137"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.30999999999995"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.76"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:43:00"/>
+    <x v="138"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="623.63"/>
+    <n v="0.73"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <n v="0.73"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:54:00"/>
+    <x v="139"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.62"/>
+    <n v="0.68"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.68"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:04:00"/>
+    <x v="140"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="631.41999999999996"/>
+    <n v="0.77"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.77"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:15:00"/>
+    <x v="141"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="616.16"/>
+    <n v="0.74"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:25:00"/>
+    <x v="142"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.79"/>
+    <n v="0.68"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.68"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:35:00"/>
+    <x v="143"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.15"/>
+    <n v="0.77"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.77"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:46:00"/>
+    <x v="144"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.04999999999995"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:56:00"/>
+    <x v="145"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="618"/>
+    <n v="0.73"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <n v="0.72"/>
+    <n v="0.49"/>
+    <n v="0.49"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:07:00"/>
+    <x v="146"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="631.66999999999996"/>
+    <n v="0.77"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.76"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:17:00"/>
+    <x v="147"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.23"/>
+    <n v="0.74"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.74"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:28:00"/>
+    <x v="148"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="618.9"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:38:00"/>
+    <x v="149"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="618.99"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:48:00"/>
+    <x v="150"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.08000000000004"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:59:00"/>
+    <x v="151"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="620.55999999999995"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:09:00"/>
+    <x v="152"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="630.41999999999996"/>
+    <n v="0.76"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.76"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:20:00"/>
+    <x v="153"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.33000000000004"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:30:00"/>
+    <x v="154"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="622.58000000000004"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:41:00"/>
+    <x v="155"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.27"/>
+    <n v="0.71"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.7"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:51:00"/>
+    <x v="156"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="622.80999999999995"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:02:00"/>
+    <x v="157"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:12:00"/>
+    <x v="158"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="630.89"/>
+    <n v="0.74"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.74"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:22:00"/>
+    <x v="159"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="616.44000000000005"/>
+    <n v="0.76"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.75"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:33:00"/>
+    <x v="160"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="620.87"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:43:00"/>
+    <x v="161"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.37"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:54:00"/>
+    <x v="162"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.19000000000005"/>
+    <n v="0.76"/>
+    <n v="0.68"/>
+    <n v="0.68"/>
+    <n v="0.76"/>
+    <n v="0.68"/>
+    <n v="0.68"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:04:00"/>
+    <x v="163"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="616.83000000000004"/>
+    <n v="0.74"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:15:00"/>
+    <x v="164"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="631.17999999999995"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:25:00"/>
+    <x v="165"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.24"/>
+    <n v="0.76"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.74"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:36:00"/>
+    <x v="166"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="620.53"/>
+    <n v="0.71"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.71"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:46:00"/>
+    <x v="167"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="616.49"/>
+    <n v="0.68"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.69"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:56:00"/>
+    <x v="168"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.74"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:07:00"/>
+    <x v="169"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.65"/>
+    <n v="0.73"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:17:00"/>
+    <x v="170"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="631.95000000000005"/>
+    <n v="0.75"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.75"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:28:00"/>
+    <x v="171"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.9"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:38:00"/>
+    <x v="172"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="620.54"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:49:00"/>
+    <x v="173"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.92999999999995"/>
+    <n v="0.7"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.71"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:59:00"/>
+    <x v="174"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="618.54999999999995"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:09:00"/>
+    <x v="175"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="618.47"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:20:00"/>
+    <x v="176"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="633.4"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.69"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:30:00"/>
+    <x v="177"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="620.26"/>
+    <n v="0.74"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:41:00"/>
+    <x v="178"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.42999999999995"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:51:00"/>
+    <x v="179"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.1"/>
+    <n v="0.74"/>
+    <n v="0.56999999999999995"/>
+    <n v="0.56999999999999995"/>
+    <n v="0.74"/>
+    <n v="0.56999999999999995"/>
+    <n v="0.56999999999999995"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T16:02:00"/>
+    <x v="180"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.9"/>
+    <n v="0.74"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.74"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T16:12:00"/>
+    <x v="181"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.91"/>
+    <n v="0.75"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.74"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T16:23:00"/>
+    <x v="182"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="629.58000000000004"/>
+    <n v="0.73"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.73"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T16:33:00"/>
+    <x v="183"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.05999999999995"/>
+    <n v="0.72"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T16:43:00"/>
+    <x v="184"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.28"/>
+    <n v="0.73"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <n v="0.7"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T16:54:00"/>
+    <x v="185"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.48"/>
+    <n v="0.71"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.69"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T17:04:00"/>
+    <x v="186"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="623.12"/>
+    <n v="0.74"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.73"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T17:15:00"/>
+    <x v="187"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.79"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T17:25:00"/>
+    <x v="188"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="629"/>
+    <n v="0.74"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.75"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T17:35:00"/>
+    <x v="189"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="617.34"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.75"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T17:46:00"/>
+    <x v="190"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="621.47"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T17:56:00"/>
+    <x v="191"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.24"/>
+    <n v="0.77"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.76"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T18:07:00"/>
+    <x v="192"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="619.73"/>
+    <n v="0.71"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.71"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:34:00"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="250.27"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T08:57:00"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="274.47000000000003"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:02:00"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="255.04"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:06:00"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="239.83"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:10:00"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="241.68"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:15:00"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="286.57"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:20:00"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="282.41000000000003"/>
+    <n v="0.71"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <n v="0.7"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:25:00"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="255.82"/>
+    <n v="0.67"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.67"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:29:00"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="253.52"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:33:00"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.38"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:37:00"/>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="221.94"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:41:00"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.75"/>
+    <n v="0.71"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.71"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:45:00"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.26"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:49:00"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="235.16"/>
+    <n v="0.74"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.74"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:53:00"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.25"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T09:57:00"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.16"/>
+    <n v="0.72"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.72"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:01:00"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.99"/>
+    <n v="0.74"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.74"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:05:00"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:09:00"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.11"/>
+    <n v="0.68"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.67"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:13:00"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.71"/>
+    <n v="0.71"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:17:00"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.65"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:21:00"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.04"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:25:00"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.99"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:28:00"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.01"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:32:00"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.87"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:36:00"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.18"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:40:00"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.26"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:44:00"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="235.12"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:48:00"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.32"/>
+    <n v="0.71"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.72"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:52:00"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.01"/>
+    <n v="0.68"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.68"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T10:56:00"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.64"/>
+    <n v="0.73"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.73"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:00:00"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.44"/>
+    <n v="0.74"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.74"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:04:00"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.33"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:08:00"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.76"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:12:00"/>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.41"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:16:00"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.89"/>
+    <n v="0.73"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:20:00"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.59"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:23:00"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.06"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:27:00"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="224.06"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:31:00"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.3"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:35:00"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.07"/>
+    <n v="0.71"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.71"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:39:00"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.68"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.69"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:43:00"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.37"/>
+    <n v="0.74"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.73"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:47:00"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.66"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.69"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:51:00"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.42"/>
+    <n v="0.75"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.73"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:55:00"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.8"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T11:59:00"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.36"/>
+    <n v="0.71"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.7"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.57999999999999996"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:03:00"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="234.79"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:07:00"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.01"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:11:00"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.73"/>
+    <n v="0.71"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.71"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:15:00"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.31"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:19:00"/>
+    <x v="50"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.76"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:23:00"/>
+    <x v="51"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="236.22"/>
+    <n v="0.68"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:27:00"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="221.68"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:31:00"/>
+    <x v="53"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.54"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:34:00"/>
+    <x v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="221.87"/>
+    <n v="0.73"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <n v="0.72"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:38:00"/>
+    <x v="55"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.02"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:42:00"/>
+    <x v="56"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="226.81"/>
+    <n v="0.69"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.69"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:46:00"/>
+    <x v="57"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.28"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:50:00"/>
+    <x v="58"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="221.95"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:54:00"/>
+    <x v="59"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.57"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.71"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T12:58:00"/>
+    <x v="60"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.38"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:02:00"/>
+    <x v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.5"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:06:00"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.06"/>
+    <n v="0.71"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <n v="0.7"/>
+    <n v="0.59"/>
+    <n v="0.59"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:10:00"/>
+    <x v="63"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="234.57"/>
+    <n v="0.68"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.68"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:14:00"/>
+    <x v="64"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.29"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:18:00"/>
+    <x v="65"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="227.3"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:22:00"/>
+    <x v="66"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="251.66"/>
+    <n v="0.75"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.75"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:27:00"/>
+    <x v="67"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="248.98"/>
+    <n v="0.74"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.74"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:31:00"/>
+    <x v="68"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="223.16"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:35:00"/>
+    <x v="69"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="249.12"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.69"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:41:00"/>
+    <x v="70"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="321.7"/>
+    <n v="0.69"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.69"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:46:00"/>
+    <x v="71"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="300.16000000000003"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.73"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:51:00"/>
+    <x v="72"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="249.26"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T13:55:00"/>
+    <x v="73"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="261.69"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.73"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:00:00"/>
+    <x v="74"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="251.3"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:04:00"/>
+    <x v="75"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="249.64"/>
+    <n v="0.73"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.73"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:08:00"/>
+    <x v="76"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="240.06"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:13:00"/>
+    <x v="77"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="239.61"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:17:00"/>
+    <x v="78"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="240.55"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.72"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:21:00"/>
+    <x v="79"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="253.98"/>
+    <n v="0.7"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.69"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:26:00"/>
+    <x v="80"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="261.98"/>
+    <n v="0.74"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.74"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:31:00"/>
+    <x v="81"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="272.42"/>
+    <n v="0.74"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.74"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:35:00"/>
+    <x v="82"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="257.39999999999998"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:40:00"/>
+    <x v="83"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="262.32"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:44:00"/>
+    <x v="84"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="252.26"/>
+    <n v="0.7"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.69"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:49:00"/>
+    <x v="85"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="261.14"/>
+    <n v="0.72"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.73"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:54:00"/>
+    <x v="86"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="262.04000000000002"/>
+    <n v="0.69"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.69"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T14:58:00"/>
+    <x v="87"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="259.62"/>
+    <n v="0.7"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <n v="0.7"/>
+    <n v="0.61"/>
+    <n v="0.61"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:03:00"/>
+    <x v="88"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="255.98"/>
+    <n v="0.74"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <n v="0.74"/>
+    <n v="0.66"/>
+    <n v="0.66"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:07:00"/>
+    <x v="89"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="254.54"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:12:00"/>
+    <x v="90"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="248.83"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <n v="0.73"/>
+    <n v="0.63"/>
+    <n v="0.63"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:16:00"/>
+    <x v="91"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="260.23"/>
+    <n v="0.72"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:21:00"/>
+    <x v="92"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="260.19"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.72"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:25:00"/>
+    <x v="93"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="237.76"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <n v="0.7"/>
+    <n v="0.65"/>
+    <n v="0.65"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:29:00"/>
+    <x v="94"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="222.76"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:34:00"/>
+    <x v="95"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="269.10000000000002"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:38:00"/>
+    <x v="96"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="252.1"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <n v="0.72"/>
+    <n v="0.67"/>
+    <n v="0.67"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:43:00"/>
+    <x v="97"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="250.44"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <n v="0.71"/>
+    <n v="0.64"/>
+    <n v="0.64"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:47:00"/>
+    <x v="98"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="250.6"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <n v="0.72"/>
+    <n v="0.6"/>
+    <n v="0.6"/>
+    <s v="both at the same time"/>
+  </r>
+  <r>
+    <d v="2016-12-01T15:53:00"/>
+    <x v="99"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="294.83999999999997"/>
+    <n v="0.7"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <n v="0.71"/>
+    <n v="0.62"/>
+    <n v="0.62"/>
+    <s v="both at the same time"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A197" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="194">
+        <item x="131"/>
+        <item x="130"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="134"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="135"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="136"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="137"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="138"/>
+        <item x="192"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="0"/>
+        <item x="100"/>
+        <item x="9"/>
+        <item x="109"/>
+        <item x="99"/>
+        <item x="10"/>
+        <item x="110"/>
+        <item x="11"/>
+        <item x="111"/>
+        <item x="12"/>
+        <item x="112"/>
+        <item x="13"/>
+        <item x="113"/>
+        <item x="14"/>
+        <item x="114"/>
+        <item x="15"/>
+        <item x="115"/>
+        <item x="16"/>
+        <item x="116"/>
+        <item x="17"/>
+        <item x="117"/>
+        <item x="18"/>
+        <item x="118"/>
+        <item x="1"/>
+        <item x="101"/>
+        <item x="19"/>
+        <item x="119"/>
+        <item x="20"/>
+        <item x="120"/>
+        <item x="21"/>
+        <item x="121"/>
+        <item x="22"/>
+        <item x="122"/>
+        <item x="23"/>
+        <item x="123"/>
+        <item x="24"/>
+        <item x="124"/>
+        <item x="25"/>
+        <item x="125"/>
+        <item x="26"/>
+        <item x="126"/>
+        <item x="27"/>
+        <item x="127"/>
+        <item x="28"/>
+        <item x="128"/>
+        <item x="2"/>
+        <item x="102"/>
+        <item x="29"/>
+        <item x="129"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="103"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="4"/>
+        <item x="104"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="105"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="6"/>
+        <item x="106"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="7"/>
+        <item x="107"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="8"/>
+        <item x="108"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="194">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,13 +7587,1012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A197"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K297" sqref="K297:K397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -16058,6 +23681,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L397"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report/results_final_analysis.xlsx
+++ b/report/results_final_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="28800" windowHeight="22320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="28800" windowHeight="22320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -8583,8 +8583,8 @@
   <dimension ref="A1:L397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K297" sqref="K297:K397"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
